--- a/explore/openCyto/drafts.xlsx
+++ b/explore/openCyto/drafts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="2180" windowWidth="26860" windowHeight="15820" tabRatio="500"/>
+    <workbookView xWindow="9040" yWindow="8580" windowWidth="26860" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,48 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Singlets</t>
+  </si>
+  <si>
+    <t>FSC-W-</t>
+  </si>
+  <si>
+    <t>lymph</t>
+  </si>
+  <si>
+    <t>FSC-W</t>
+  </si>
+  <si>
+    <t>tailgate</t>
+  </si>
+  <si>
+    <t>tol=5e-3</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>standardize_flowset</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,8 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +373,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>